--- a/gerber/ps4-usb-hen-esp32-top-pos.xlsx
+++ b/gerber/ps4-usb-hen-esp32-top-pos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Tofi\github\PS4-USB-HEN-ESP32\ps4-usb-hen-esp32\gerber\X\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Tofi\github\PS4-USB-HEN-ESP32\gerber\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ps4-usb-hen-esp32-top-pos" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Designator</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Manualy Y adjusted!, originaly -109</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
 </sst>
 </file>
@@ -174,9 +180,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -457,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -474,7 +481,7 @@
     <col min="7" max="7" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -508,7 +515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -525,7 +532,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -533,7 +540,7 @@
         <v>117.32040000000001</v>
       </c>
       <c r="C4">
-        <v>-134.20931999999999</v>
+        <v>-134.11199999999999</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -542,7 +549,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -559,7 +566,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -576,7 +583,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -593,7 +600,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -610,7 +617,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -627,15 +634,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
       <c r="B10">
-        <v>104.99</v>
+        <v>105.41</v>
       </c>
       <c r="C10">
-        <v>-117.18</v>
+        <v>-117.348</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -644,24 +651,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>116.10374</v>
+        <v>114.64</v>
       </c>
       <c r="C11">
-        <v>-128.76102</v>
+        <v>-128.72</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -678,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -695,7 +702,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -712,12 +719,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15">
-        <v>144.81</v>
+        <v>144.79</v>
       </c>
       <c r="C15">
         <v>-129.69999999999999</v>
@@ -731,8 +738,11 @@
       <c r="H15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>-129.69999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -740,7 +750,7 @@
         <v>124.1</v>
       </c>
       <c r="C16">
-        <v>-136.61000000000001</v>
+        <v>-136.398</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -749,14 +759,14 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
         <v>137.72422</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>-112.81998</v>
       </c>
       <c r="D17" t="s">
@@ -766,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -783,49 +793,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>121.19</v>
+      </c>
+      <c r="C19">
+        <v>-132.31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>103.92140000000001</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>-126.55122</v>
       </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19">
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
-        <v>120.61732000000001</v>
-      </c>
-      <c r="C20">
-        <v>-127.839</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
       <c r="B21">
-        <v>138.55734000000001</v>
+        <v>119.634</v>
       </c>
       <c r="C21">
-        <v>-116.24898</v>
+        <v>-125.98399999999999</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -834,15 +844,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>140.09657999999999</v>
+        <v>138.55734000000001</v>
       </c>
       <c r="C22">
-        <v>-117.34626</v>
+        <v>-116.24898</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -851,83 +861,83 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>140.09657999999999</v>
+      </c>
+      <c r="C23">
+        <v>-117.34626</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>133.30207999999999</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>-123.37114</v>
       </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23">
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24">
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>136.24848</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>-115.66477999999999</v>
       </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24">
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>135.06738000000001</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>-124.15600000000001</v>
       </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25">
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>131.75522000000001</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>-127.49102000000001</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>141.24212</v>
-      </c>
-      <c r="C27">
-        <v>-122.63961999999999</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -936,32 +946,32 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>141.24212</v>
+      </c>
+      <c r="C28">
+        <v>-122.63961999999999</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>139.70287999999999</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>-108.78391999999999</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>106.98514</v>
-      </c>
-      <c r="C29">
-        <v>-110.67876</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -970,15 +980,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>111.97369999999999</v>
+        <v>106.98514</v>
       </c>
       <c r="C30">
-        <v>-135.77395999999999</v>
+        <v>-110.67876</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
@@ -987,46 +997,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>112.05</v>
+      </c>
+      <c r="C31">
+        <v>-136.22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>124.13776</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>-130.00308000000001</v>
       </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31">
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>122.71</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>-108.5</v>
       </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32">
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33">
         <v>270</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H33" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>119.8</v>
+      </c>
+      <c r="C34">
+        <v>-128.87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
